--- a/MarvelContestOfChampions/五星记录.xlsx
+++ b/MarvelContestOfChampions/五星记录.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$111</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="94">
   <si>
     <t>海拉</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -368,6 +368,34 @@
   </si>
   <si>
     <t>红浩克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杀戮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金刚狼(X-23)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浩克(诸神黄昏)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红骷髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>术士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾玛弗斯特</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,7 +587,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>15</c:v>
@@ -594,11 +622,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="390450784"/>
-        <c:axId val="390446864"/>
+        <c:axId val="83037392"/>
+        <c:axId val="83037952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="390450784"/>
+        <c:axId val="83037392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -641,7 +669,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390446864"/>
+        <c:crossAx val="83037952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -649,7 +677,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="390446864"/>
+        <c:axId val="83037952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -700,7 +728,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390450784"/>
+        <c:crossAx val="83037392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1590,10 +1618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I105"/>
+  <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1636,8 +1664,8 @@
         <v>78</v>
       </c>
       <c r="I2">
-        <f>COUNTIF($D$2:$D$105,1)</f>
-        <v>10</v>
+        <f>COUNTIF($D$2:$D$112,1)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1762,7 +1790,7 @@
         <v>84</v>
       </c>
       <c r="I8">
-        <f>COUNTIF($D$2:$D$105,7)</f>
+        <f>COUNTIF($D$2:$D$110,7)</f>
         <v>9</v>
       </c>
     </row>
@@ -3127,8 +3155,106 @@
         <v>6</v>
       </c>
     </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>20200321</v>
+      </c>
+      <c r="B106" t="s">
+        <v>87</v>
+      </c>
+      <c r="C106">
+        <v>5</v>
+      </c>
+      <c r="D106">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>20200321</v>
+      </c>
+      <c r="B107" t="s">
+        <v>88</v>
+      </c>
+      <c r="C107">
+        <v>5</v>
+      </c>
+      <c r="D107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>20200328</v>
+      </c>
+      <c r="B108" t="s">
+        <v>89</v>
+      </c>
+      <c r="C108">
+        <v>5</v>
+      </c>
+      <c r="D108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>20200328</v>
+      </c>
+      <c r="B109" t="s">
+        <v>90</v>
+      </c>
+      <c r="C109">
+        <v>6</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>20200402</v>
+      </c>
+      <c r="B110" t="s">
+        <v>91</v>
+      </c>
+      <c r="C110">
+        <v>5</v>
+      </c>
+      <c r="D110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>20200403</v>
+      </c>
+      <c r="B111" t="s">
+        <v>92</v>
+      </c>
+      <c r="C111">
+        <v>5</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>20200409</v>
+      </c>
+      <c r="B112" t="s">
+        <v>93</v>
+      </c>
+      <c r="C112">
+        <v>5</v>
+      </c>
+      <c r="D112">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
+  <autoFilter ref="A1:E111"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/MarvelContestOfChampions/五星记录.xlsx
+++ b/MarvelContestOfChampions/五星记录.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="99">
   <si>
     <t>海拉</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -396,6 +396,26 @@
   </si>
   <si>
     <t>艾玛弗斯特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷神索尔（简佛斯特）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊奇队长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑市特五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶煞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫卓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,7 +607,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>15</c:v>
@@ -622,11 +642,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="83037392"/>
-        <c:axId val="83037952"/>
+        <c:axId val="227553152"/>
+        <c:axId val="227553712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83037392"/>
+        <c:axId val="227553152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -669,7 +689,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83037952"/>
+        <c:crossAx val="227553712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -677,7 +697,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83037952"/>
+        <c:axId val="227553712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -728,7 +748,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83037392"/>
+        <c:crossAx val="227553152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1618,10 +1638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:I117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1664,8 +1684,8 @@
         <v>78</v>
       </c>
       <c r="I2">
-        <f>COUNTIF($D$2:$D$112,1)</f>
-        <v>11</v>
+        <f>COUNTIF($D$2:$D$117,1)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -3251,6 +3271,82 @@
       </c>
       <c r="D112">
         <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>20200416</v>
+      </c>
+      <c r="B113" t="s">
+        <v>94</v>
+      </c>
+      <c r="C113">
+        <v>5</v>
+      </c>
+      <c r="D113">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>20200421</v>
+      </c>
+      <c r="B114" t="s">
+        <v>95</v>
+      </c>
+      <c r="C114">
+        <v>5</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>20200423</v>
+      </c>
+      <c r="B115" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115">
+        <v>5</v>
+      </c>
+      <c r="D115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>20200425</v>
+      </c>
+      <c r="B116" t="s">
+        <v>97</v>
+      </c>
+      <c r="C116">
+        <v>5</v>
+      </c>
+      <c r="D116">
+        <v>7</v>
+      </c>
+      <c r="E116" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>20200430</v>
+      </c>
+      <c r="B117" t="s">
+        <v>98</v>
+      </c>
+      <c r="C117">
+        <v>5</v>
+      </c>
+      <c r="D117">
+        <v>3</v>
+      </c>
+      <c r="E117" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
